--- a/demo/files/demo1-tpl.xlsx
+++ b/demo/files/demo1-tpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WWW\www-domains\dev.loc\fast-excel-templator\xdev-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WWW\www-domains\dev.loc\fast-excel-templator\demo2\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E540E239-B62E-449C-89B5-5601DD87CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A91D7-9ED9-40F7-A17B-894785DF9B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,12 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -186,13 +185,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,11 +479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -485,68 +492,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.1" x14ac:dyDescent="0.85">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9" t="s">
+    <row r="8" spans="1:4" ht="8.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
